--- a/OUTPUT-FILES/osel-wps-r1-coder-assignments.xlsx
+++ b/OUTPUT-FILES/osel-wps-r1-coder-assignments.xlsx
@@ -113,7 +113,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.02001002E8</v>
+        <v>1.02001001E8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -133,7 +133,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.02001003E8</v>
+        <v>1.02001002E8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -148,18 +148,18 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.02001004E8</v>
+        <v>1.02001009E8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n">
         <v>1.0</v>
@@ -173,13 +173,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.02001012E8</v>
+        <v>1.0200101E8</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="D5" t="n">
         <v>1.0</v>
@@ -193,13 +193,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.02001013E8</v>
+        <v>1.02001011E8</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
@@ -213,13 +213,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.02001014E8</v>
+        <v>1.02001012E8</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D7" t="n">
         <v>1.0</v>
@@ -233,16 +233,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.02001016E8</v>
+        <v>1.02001017E8</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -253,13 +253,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.07001002E8</v>
+        <v>1.07001001E8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n">
         <v>1.0</v>
@@ -293,7 +293,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.07001004E8</v>
+        <v>1.07001006E8</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -313,7 +313,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.07001009E8</v>
+        <v>1.07001007E8</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -333,7 +333,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.07001012E8</v>
+        <v>1.0700101E8</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -353,7 +353,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.07001013E8</v>
+        <v>1.07001014E8</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -388,24 +388,24 @@
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.07001018E8</v>
+        <v>1.07001104E8</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -413,19 +413,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.07001019E8</v>
+        <v>1.07001105E8</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -433,16 +433,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.07001025E8</v>
+        <v>1.07001107E8</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.07001028E8</v>
+        <v>1.07001108E8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -462,7 +462,7 @@
         <v>7.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
@@ -473,13 +473,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.070011E8</v>
+        <v>1.0700111E8</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D20" t="n">
         <v>2.0</v>
@@ -493,13 +493,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.07001106E8</v>
+        <v>1.07001111E8</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D21" t="n">
         <v>2.0</v>
@@ -513,19 +513,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.07001107E8</v>
+        <v>1.08001009E8</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.07001108E8</v>
+        <v>1.08001012E8</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -553,16 +553,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.0700111E8</v>
+        <v>1.08001015E8</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.07001113E8</v>
+        <v>1.08001019E8</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D25" t="n">
         <v>2.0</v>
@@ -593,19 +593,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.07001116E8</v>
+        <v>1.12001003E8</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.08001003E8</v>
+        <v>1.12001008E8</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -622,10 +622,10 @@
         <v>9.0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -633,16 +633,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.08001004E8</v>
+        <v>1.13001001E8</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E28" t="n">
         <v>0.0</v>
@@ -653,27 +653,27 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.08001006E8</v>
+        <v>1.13001002E8</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.08001007E8</v>
+        <v>1.13001003E8</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -682,7 +682,7 @@
         <v>5.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E30" t="n">
         <v>0.0</v>
@@ -693,16 +693,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.08001012E8</v>
+        <v>1.13001004E8</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E31" t="n">
         <v>0.0</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.08001018E8</v>
+        <v>1.13001005E8</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
@@ -733,33 +733,33 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.12001003E8</v>
+        <v>1.13001007E8</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.12001007E8</v>
+        <v>1.13001022E8</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="D34" t="n">
         <v>1.0</v>
@@ -773,27 +773,27 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.13001004E8</v>
+        <v>1.13001025E8</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.13001005E8</v>
+        <v>1.14001005E8</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.13001011E8</v>
+        <v>1.14001006E8</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D37" t="n">
         <v>1.0</v>
@@ -833,13 +833,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.13001016E8</v>
+        <v>1.14001007E8</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
@@ -853,19 +853,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.13001018E8</v>
+        <v>1.1400101E8</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D39" t="n">
         <v>1.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -873,13 +873,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.13001019E8</v>
+        <v>1.14001021E8</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D40" t="n">
         <v>1.0</v>
@@ -893,19 +893,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.1300102E8</v>
+        <v>1.14001022E8</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D41" t="n">
         <v>1.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -913,19 +913,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.13001021E8</v>
+        <v>1.15001002E8</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D42" t="n">
         <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.14001001E8</v>
+        <v>1.15001003E8</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D43" t="n">
         <v>1.0</v>
@@ -953,13 +953,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.14001003E8</v>
+        <v>1.15001004E8</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
@@ -973,13 +973,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.14001007E8</v>
+        <v>1.15001006E8</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D45" t="n">
         <v>1.0</v>
@@ -988,18 +988,18 @@
         <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.14001009E8</v>
+        <v>1.15001007E8</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
@@ -1013,13 +1013,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.14001011E8</v>
+        <v>1.15001012E8</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
@@ -1033,13 +1033,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.14001015E8</v>
+        <v>1.15001013E8</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D48" t="n">
         <v>1.0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.14001016E8</v>
+        <v>1.16001001E8</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1073,16 +1073,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.14001017E8</v>
+        <v>1.16001003E8</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E50" t="n">
         <v>0.0</v>
@@ -1093,27 +1093,27 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.14001019E8</v>
+        <v>1.16001005E8</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E51" t="n">
         <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.1400102E8</v>
+        <v>1.16001006E8</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1122,7 +1122,7 @@
         <v>5.0</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E52" t="n">
         <v>0.0</v>
@@ -1133,16 +1133,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.14001021E8</v>
+        <v>1.16001007E8</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E53" t="n">
         <v>0.0</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.15001001E8</v>
+        <v>1.16001011E8</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1162,18 +1162,18 @@
         <v>4.0</v>
       </c>
       <c r="D54" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E54" t="n">
         <v>0.0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.15001004E8</v>
+        <v>1.17001005E8</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1193,19 +1193,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.1500101E8</v>
+        <v>1.17001007E8</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D56" t="n">
         <v>1.0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.15001011E8</v>
+        <v>1.1700101E8</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="D57" t="n">
         <v>1.0</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.16001003E8</v>
+        <v>1.17001016E8</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -1242,10 +1242,10 @@
         <v>7.0</v>
       </c>
       <c r="D58" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -1253,16 +1253,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.16001009E8</v>
+        <v>1.17001018E8</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D59" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E59" t="n">
         <v>0.0</v>
@@ -1273,16 +1273,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.16001011E8</v>
+        <v>1.17001019E8</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D60" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E60" t="n">
         <v>0.0</v>
@@ -1293,13 +1293,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.17001001E8</v>
+        <v>1.1700102E8</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="D61" t="n">
         <v>1.0</v>
@@ -1308,18 +1308,18 @@
         <v>1.0</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.17001003E8</v>
+        <v>1.17001023E8</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
@@ -1333,19 +1333,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.17001006E8</v>
+        <v>1.17001024E8</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="D63" t="n">
         <v>1.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.17001008E8</v>
+        <v>1.17001025E8</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D64" t="n">
         <v>1.0</v>
@@ -1373,13 +1373,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.17001009E8</v>
+        <v>1.17001027E8</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="D65" t="n">
         <v>1.0</v>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.17001012E8</v>
+        <v>1.20001004E8</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D66" t="n">
         <v>1.0</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.17001017E8</v>
+        <v>1.20001006E8</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D67" t="n">
         <v>1.0</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.17001021E8</v>
+        <v>1.20001009E8</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
@@ -1448,18 +1448,18 @@
         <v>0.0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.17001023E8</v>
+        <v>1.27001001E8</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="D69" t="n">
         <v>1.0</v>
@@ -1473,19 +1473,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.17001024E8</v>
+        <v>1.27001002E8</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="D70" t="n">
         <v>1.0</v>
       </c>
       <c r="E70" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.17001025E8</v>
+        <v>1.27001004E8</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="D71" t="n">
         <v>1.0</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.17001027E8</v>
+        <v>1.27001005E8</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="D72" t="n">
         <v>1.0</v>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.20001001E8</v>
+        <v>1.27001008E8</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D73" t="n">
         <v>1.0</v>
@@ -1548,18 +1548,18 @@
         <v>0.0</v>
       </c>
       <c r="F73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.20001002E8</v>
+        <v>1.27001013E8</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D74" t="n">
         <v>1.0</v>
@@ -1573,19 +1573,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.20001004E8</v>
+        <v>1.31001001E8</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D75" t="n">
         <v>1.0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -1593,19 +1593,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.20001005E8</v>
+        <v>1.31001002E8</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D76" t="n">
         <v>1.0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1613,19 +1613,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.27001001E8</v>
+        <v>1.31001006E8</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D77" t="n">
         <v>1.0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -1633,19 +1633,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.27001004E8</v>
+        <v>1.31001008E8</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D78" t="n">
         <v>1.0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -1653,19 +1653,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.27001008E8</v>
+        <v>1.31001009E8</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="D79" t="n">
         <v>1.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -1673,19 +1673,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.27001011E8</v>
+        <v>1.31001013E8</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D80" t="n">
         <v>1.0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.27001014E8</v>
+        <v>1.31001015E8</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -1705,7 +1705,7 @@
         <v>1.0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -1713,16 +1713,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.30001001E8</v>
+        <v>1.31001016E8</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E82" t="n">
         <v>0.0</v>
@@ -1733,16 +1733,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.30001002E8</v>
+        <v>1.31001017E8</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E83" t="n">
         <v>0.0</v>
@@ -1753,13 +1753,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.30001007E8</v>
+        <v>1.31001018E8</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D84" t="n">
         <v>1.0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.31001004E8</v>
+        <v>1.31001026E8</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D85" t="n">
         <v>1.0</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.31001005E8</v>
+        <v>1.31001029E8</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D86" t="n">
         <v>1.0</v>
@@ -1813,59 +1813,59 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.31001006E8</v>
+        <v>1.3100103E8</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D87" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E87" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F87" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.31001008E8</v>
+        <v>1.31001031E8</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D88" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E88" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.3100101E8</v>
+        <v>1.31001033E8</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D89" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E89" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.31001012E8</v>
+        <v>1.31001036E8</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D90" t="n">
         <v>1.0</v>
@@ -1893,19 +1893,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.31001017E8</v>
+        <v>1.31001037E8</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D91" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.31001019E8</v>
+        <v>1.31001044E8</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D92" t="n">
         <v>1.0</v>
@@ -1933,16 +1933,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.31001022E8</v>
+        <v>1.33001003E8</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D93" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E93" t="n">
         <v>0.0</v>
@@ -1953,19 +1953,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.31001026E8</v>
+        <v>1.33001012E8</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D94" t="n">
         <v>1.0</v>
       </c>
       <c r="E94" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -1973,36 +1973,36 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.31001029E8</v>
+        <v>1.35001008E8</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D95" t="n">
         <v>1.0</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F95" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.31001031E8</v>
+        <v>1.3500101E8</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D96" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E96" t="n">
         <v>0.0</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.31001036E8</v>
+        <v>1.35001014E8</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D97" t="n">
         <v>1.0</v>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.3100104E8</v>
+        <v>1.35001019E8</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D98" t="n">
         <v>1.0</v>
@@ -2053,16 +2053,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.31001041E8</v>
+        <v>1.35001021E8</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E99" t="n">
         <v>0.0</v>
@@ -2073,33 +2073,33 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.31001044E8</v>
+        <v>1.36001004E8</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D100" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E100" t="n">
         <v>0.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.33001006E8</v>
+        <v>1.36001006E8</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D101" t="n">
         <v>2.0</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.33001007E8</v>
+        <v>1.3600101E8</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E102" t="n">
         <v>0.0</v>
@@ -2133,16 +2133,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.33001011E8</v>
+        <v>1.38001007E8</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D103" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E103" t="n">
         <v>0.0</v>
@@ -2153,16 +2153,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.33001012E8</v>
+        <v>1.38001009E8</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D104" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E104" t="n">
         <v>0.0</v>
@@ -2173,16 +2173,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.33001014E8</v>
+        <v>1.38001011E8</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E105" t="n">
         <v>0.0</v>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.35001008E8</v>
+        <v>1.38001012E8</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="D106" t="n">
         <v>1.0</v>
@@ -2208,12 +2208,12 @@
         <v>0.0</v>
       </c>
       <c r="F106" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.35001011E8</v>
+        <v>1.40001013E8</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -2233,13 +2233,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.35001014E8</v>
+        <v>1.40001015E8</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D108" t="n">
         <v>1.0</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.36001002E8</v>
+        <v>1.40001019E8</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -2262,7 +2262,7 @@
         <v>4.0</v>
       </c>
       <c r="D109" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E109" t="n">
         <v>0.0</v>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.38001006E8</v>
+        <v>1.41001003E8</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D110" t="n">
         <v>1.0</v>
@@ -2293,36 +2293,36 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.38001009E8</v>
+        <v>1.41001004E8</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="D111" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E111" t="n">
         <v>0.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.38001013E8</v>
+        <v>1.41001006E8</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="D112" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E112" t="n">
         <v>0.0</v>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.38001019E8</v>
+        <v>1.41001008E8</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D113" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E113" t="n">
         <v>0.0</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.40001023E8</v>
+        <v>1.41001015E8</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="D114" t="n">
         <v>1.0</v>
@@ -2373,13 +2373,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.41001003E8</v>
+        <v>1.41001016E8</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D115" t="n">
         <v>1.0</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.41001006E8</v>
+        <v>1.41001019E8</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.4100101E8</v>
+        <v>1.4100102E8</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.41001013E8</v>
+        <v>1.41001022E8</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D118" t="n">
         <v>1.0</v>
@@ -2448,18 +2448,18 @@
         <v>0.0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.41001014E8</v>
+        <v>1.41001023E8</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
       <c r="C119" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D119" t="n">
         <v>1.0</v>
@@ -2473,13 +2473,13 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.41001015E8</v>
+        <v>1.43001001E8</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D120" t="n">
         <v>1.0</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.41001018E8</v>
+        <v>1.43001005E8</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D121" t="n">
         <v>1.0</v>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.41001019E8</v>
+        <v>1.43001015E8</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D122" t="n">
         <v>1.0</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.43001002E8</v>
+        <v>1.43001023E8</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -2553,16 +2553,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.43001006E8</v>
+        <v>1.43001024E8</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D124" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E124" t="n">
         <v>0.0</v>
@@ -2573,36 +2573,36 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.43001009E8</v>
+        <v>1.45001003E8</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D125" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E125" t="n">
         <v>0.0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.43001013E8</v>
+        <v>1.45001004E8</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D126" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E126" t="n">
         <v>0.0</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.43001014E8</v>
+        <v>1.45001011E8</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="D127" t="n">
         <v>1.0</v>
@@ -2633,13 +2633,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.43001015E8</v>
+        <v>1.45001015E8</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D128" t="n">
         <v>1.0</v>
@@ -2648,18 +2648,18 @@
         <v>0.0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.43001024E8</v>
+        <v>1.46001001E8</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D129" t="n">
         <v>1.0</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.45001001E8</v>
+        <v>1.46001005E8</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D130" t="n">
         <v>1.0</v>
@@ -2688,18 +2688,18 @@
         <v>0.0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.45001002E8</v>
+        <v>1.47001005E8</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D131" t="n">
         <v>1.0</v>
@@ -2713,13 +2713,13 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.45001011E8</v>
+        <v>1.47001007E8</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="D132" t="n">
         <v>1.0</v>
@@ -2733,13 +2733,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.45001015E8</v>
+        <v>1.47001008E8</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D133" t="n">
         <v>1.0</v>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.47001001E8</v>
+        <v>1.47001011E8</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="D134" t="n">
         <v>1.0</v>
@@ -2773,19 +2773,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.47001002E8</v>
+        <v>1.49001001E8</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D135" t="n">
         <v>1.0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F135" t="n">
         <v>0.0</v>
@@ -2793,19 +2793,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.47001005E8</v>
+        <v>1.49001007E8</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="D136" t="n">
         <v>1.0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F136" t="n">
         <v>0.0</v>
@@ -2813,19 +2813,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.4700101E8</v>
+        <v>1.4900101E8</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D137" t="n">
         <v>1.0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F137" t="n">
         <v>0.0</v>
@@ -2833,39 +2833,39 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.47001011E8</v>
+        <v>1.4900102E8</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="C138" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="D138" t="n">
         <v>1.0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.49001005E8</v>
+        <v>1.49001023E8</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="C139" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D139" t="n">
         <v>1.0</v>
       </c>
       <c r="E139" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -2873,19 +2873,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.49001011E8</v>
+        <v>1.49001024E8</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D140" t="n">
         <v>1.0</v>
       </c>
       <c r="E140" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F140" t="n">
         <v>0.0</v>
@@ -2893,13 +2893,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.49001019E8</v>
+        <v>1.49001027E8</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="D141" t="n">
         <v>1.0</v>
@@ -2913,19 +2913,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.49001031E8</v>
+        <v>1.52001003E8</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D142" t="n">
         <v>1.0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F142" t="n">
         <v>0.0</v>
@@ -2933,13 +2933,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.52001001E8</v>
+        <v>1.52001008E8</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="C143" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D143" t="n">
         <v>1.0</v>
@@ -2953,13 +2953,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.52001004E8</v>
+        <v>1.52001012E8</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D144" t="n">
         <v>1.0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.52001008E8</v>
+        <v>1.52001016E8</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -2985,7 +2985,7 @@
         <v>1.0</v>
       </c>
       <c r="E145" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F145" t="n">
         <v>1.0</v>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.5200101E8</v>
+        <v>1.52001017E8</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
       <c r="C146" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D146" t="n">
         <v>1.0</v>
@@ -3013,13 +3013,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.52001015E8</v>
+        <v>1.52001019E8</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D147" t="n">
         <v>1.0</v>
@@ -3028,18 +3028,18 @@
         <v>1.0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.5200102E8</v>
+        <v>1.52001026E8</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D148" t="n">
         <v>1.0</v>
@@ -3053,13 +3053,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.52001021E8</v>
+        <v>1.52001027E8</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
       </c>
       <c r="C149" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D149" t="n">
         <v>1.0</v>
@@ -3073,19 +3073,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.52001022E8</v>
+        <v>1.52001035E8</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D150" t="n">
         <v>1.0</v>
       </c>
       <c r="E150" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F150" t="n">
         <v>0.0</v>
@@ -3093,19 +3093,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.52001028E8</v>
+        <v>1.54001002E8</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D151" t="n">
         <v>1.0</v>
       </c>
       <c r="E151" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F151" t="n">
         <v>0.0</v>
@@ -3113,19 +3113,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.52001032E8</v>
+        <v>1.54001003E8</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D152" t="n">
         <v>1.0</v>
       </c>
       <c r="E152" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F152" t="n">
         <v>0.0</v>
@@ -3133,19 +3133,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.52001033E8</v>
+        <v>1.54001004E8</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
       <c r="C153" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D153" t="n">
         <v>1.0</v>
       </c>
       <c r="E153" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F153" t="n">
         <v>0.0</v>
@@ -3153,19 +3153,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.52001034E8</v>
+        <v>1.54001007E8</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="C154" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D154" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E154" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F154" t="n">
         <v>0.0</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.54001001E8</v>
+        <v>1.5400101E8</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3193,19 +3193,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.54001008E8</v>
+        <v>1.59001001E8</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D156" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E156" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F156" t="n">
         <v>0.0</v>
@@ -3213,13 +3213,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.54001009E8</v>
+        <v>1.59001005E8</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D157" t="n">
         <v>2.0</v>
@@ -3233,16 +3233,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.54001013E8</v>
+        <v>1.59001008E8</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
       <c r="C158" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D158" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E158" t="n">
         <v>0.0</v>
@@ -3253,13 +3253,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.60001006E8</v>
+        <v>1.63001001E8</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D159" t="n">
         <v>1.0</v>
@@ -3273,16 +3273,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.60001009E8</v>
+        <v>1.63001003E8</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="D160" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E160" t="n">
         <v>0.0</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.60001013E8</v>
+        <v>1.63001004E8</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3308,12 +3308,12 @@
         <v>0.0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.60001014E8</v>
+        <v>1.63001005E8</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3328,12 +3328,12 @@
         <v>0.0</v>
       </c>
       <c r="F162" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.63001004E8</v>
+        <v>1.63001008E8</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3353,13 +3353,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.63001005E8</v>
+        <v>1.6300101E8</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="C164" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D164" t="n">
         <v>1.0</v>
@@ -3368,12 +3368,12 @@
         <v>0.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.63001006E8</v>
+        <v>1.64001005E8</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -3388,18 +3388,18 @@
         <v>0.0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.63001009E8</v>
+        <v>1.64001009E8</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
       <c r="C166" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D166" t="n">
         <v>1.0</v>
@@ -3408,18 +3408,18 @@
         <v>0.0</v>
       </c>
       <c r="F166" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.6300101E8</v>
+        <v>1.64001015E8</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
       <c r="C167" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D167" t="n">
         <v>1.0</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.64001011E8</v>
+        <v>1.64001017E8</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -3453,13 +3453,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.64001012E8</v>
+        <v>1.64001018E8</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
       <c r="C169" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D169" t="n">
         <v>1.0</v>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.64001015E8</v>
+        <v>2.03001001E8</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
       </c>
       <c r="C170" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D170" t="n">
         <v>1.0</v>
@@ -3493,13 +3493,13 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.64001018E8</v>
+        <v>2.03001004E8</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
       </c>
       <c r="C171" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D171" t="n">
         <v>1.0</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.03001001E8</v>
+        <v>2.03001005E8</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
       </c>
       <c r="C172" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D172" t="n">
         <v>1.0</v>
@@ -3533,13 +3533,13 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.03001003E8</v>
+        <v>2.03001006E8</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
       <c r="C173" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D173" t="n">
         <v>1.0</v>
@@ -3548,18 +3548,18 @@
         <v>0.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.03001008E8</v>
+        <v>2.0300101E8</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
       </c>
       <c r="C174" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D174" t="n">
         <v>1.0</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.02001005E8</v>
+        <v>1.02001003E8</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3621,12 +3621,12 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.02001006E8</v>
+        <v>1.02001005E8</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3646,13 +3646,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.02001008E8</v>
+        <v>1.02001007E8</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
         <v>1.0</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0200101E8</v>
+        <v>1.02001008E8</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -3686,13 +3686,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.02001011E8</v>
+        <v>1.02001015E8</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.07001007E8</v>
+        <v>1.07001004E8</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.07001008E8</v>
+        <v>1.07001009E8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -3746,13 +3746,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.07001014E8</v>
+        <v>1.07001011E8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n">
         <v>1.0</v>
@@ -3766,13 +3766,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.0700102E8</v>
+        <v>1.07001012E8</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D10" t="n">
         <v>1.0</v>
@@ -3786,19 +3786,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.07001022E8</v>
+        <v>1.07001013E8</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="n">
         <v>1.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -3806,19 +3806,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.07001023E8</v>
+        <v>1.07001015E8</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D12" t="n">
         <v>1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.07001026E8</v>
+        <v>1.07001017E8</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -3838,27 +3838,27 @@
         <v>1.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.07001103E8</v>
+        <v>1.07001019E8</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -3866,19 +3866,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.07001105E8</v>
+        <v>1.07001021E8</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -3886,16 +3886,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.07001109E8</v>
+        <v>1.07001022E8</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
@@ -3906,16 +3906,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.07001111E8</v>
+        <v>1.07001024E8</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
@@ -3926,16 +3926,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.07001112E8</v>
+        <v>1.07001025E8</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
@@ -3946,36 +3946,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.08001001E8</v>
+        <v>1.07001028E8</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.08001005E8</v>
+        <v>1.070011E8</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
@@ -3986,19 +3986,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.08001008E8</v>
+        <v>1.07001101E8</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -4006,27 +4006,27 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.08001009E8</v>
+        <v>1.07001106E8</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.08001015E8</v>
+        <v>1.07001109E8</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -4035,7 +4035,7 @@
         <v>6.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
@@ -4046,16 +4046,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.08001016E8</v>
+        <v>1.07001115E8</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
@@ -4066,19 +4066,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.08001017E8</v>
+        <v>1.08001001E8</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25" t="n">
         <v>1.0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -4086,13 +4086,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.08001019E8</v>
+        <v>1.08001004E8</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D26" t="n">
         <v>2.0</v>
@@ -4106,16 +4106,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.1000101E8</v>
+        <v>1.08001007E8</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E27" t="n">
         <v>0.0</v>
@@ -4126,13 +4126,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.10001012E8</v>
+        <v>1.0800101E8</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D28" t="n">
         <v>1.0</v>
@@ -4141,24 +4141,24 @@
         <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.12001001E8</v>
+        <v>1.08001016E8</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.12001004E8</v>
+        <v>1.08001017E8</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -4178,7 +4178,7 @@
         <v>1.0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -4186,39 +4186,39 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.12001005E8</v>
+        <v>1.08001018E8</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D31" t="n">
         <v>1.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.12001009E8</v>
+        <v>1.10001012E8</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -4226,19 +4226,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.1200101E8</v>
+        <v>1.12001001E8</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -4246,19 +4246,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.13001012E8</v>
+        <v>1.12001005E8</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D34" t="n">
         <v>1.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -4266,19 +4266,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.13001015E8</v>
+        <v>1.12001007E8</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -4286,13 +4286,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.13001023E8</v>
+        <v>1.12001009E8</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="D36" t="n">
         <v>1.0</v>
@@ -4306,33 +4306,33 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.13001025E8</v>
+        <v>1.13001006E8</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D37" t="n">
         <v>1.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.14001004E8</v>
+        <v>1.13001008E8</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
@@ -4341,18 +4341,18 @@
         <v>0.0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1400101E8</v>
+        <v>1.13001009E8</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="D39" t="n">
         <v>1.0</v>
@@ -4366,19 +4366,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14001013E8</v>
+        <v>1.13001018E8</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="D40" t="n">
         <v>1.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -4386,19 +4386,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.14001014E8</v>
+        <v>1.1300102E8</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D41" t="n">
         <v>1.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -4406,19 +4406,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.14001018E8</v>
+        <v>1.13001023E8</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D42" t="n">
         <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.14001022E8</v>
+        <v>1.13001024E8</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -4438,7 +4438,7 @@
         <v>1.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -4446,13 +4446,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.15001002E8</v>
+        <v>1.14001001E8</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
@@ -4466,13 +4466,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.15001003E8</v>
+        <v>1.14001002E8</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="D45" t="n">
         <v>1.0</v>
@@ -4481,18 +4481,18 @@
         <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.15001005E8</v>
+        <v>1.14001004E8</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
@@ -4506,13 +4506,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.15001006E8</v>
+        <v>1.14001008E8</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
@@ -4526,13 +4526,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.15001008E8</v>
+        <v>1.14001009E8</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D48" t="n">
         <v>1.0</v>
@@ -4546,13 +4546,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.15001012E8</v>
+        <v>1.14001015E8</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D49" t="n">
         <v>1.0</v>
@@ -4566,13 +4566,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.16001002E8</v>
+        <v>1.14001016E8</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D50" t="n">
         <v>1.0</v>
@@ -4586,36 +4586,36 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.16001005E8</v>
+        <v>1.14001018E8</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D51" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E51" t="n">
         <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.16001007E8</v>
+        <v>1.1400102E8</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D52" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E52" t="n">
         <v>0.0</v>
@@ -4626,19 +4626,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.17001002E8</v>
+        <v>1.14001023E8</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D53" t="n">
         <v>1.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -4646,13 +4646,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.17001004E8</v>
+        <v>1.15001001E8</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D54" t="n">
         <v>1.0</v>
@@ -4666,13 +4666,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.17001005E8</v>
+        <v>1.15001005E8</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D55" t="n">
         <v>1.0</v>
@@ -4686,16 +4686,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.17001011E8</v>
+        <v>1.16001004E8</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E56" t="n">
         <v>0.0</v>
@@ -4706,16 +4706,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.17001013E8</v>
+        <v>1.16001008E8</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E57" t="n">
         <v>0.0</v>
@@ -4726,33 +4726,33 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.17001014E8</v>
+        <v>1.1600101E8</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E58" t="n">
         <v>0.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.17001015E8</v>
+        <v>1.16001012E8</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
@@ -4761,24 +4761,24 @@
         <v>0.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.17001018E8</v>
+        <v>1.17001002E8</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D60" t="n">
         <v>1.0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -4786,13 +4786,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.20001006E8</v>
+        <v>1.17001003E8</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D61" t="n">
         <v>1.0</v>
@@ -4806,13 +4806,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.2000101E8</v>
+        <v>1.17001004E8</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
@@ -4826,13 +4826,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.27001002E8</v>
+        <v>1.17001006E8</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D63" t="n">
         <v>1.0</v>
@@ -4846,13 +4846,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.27001005E8</v>
+        <v>1.17001008E8</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D64" t="n">
         <v>1.0</v>
@@ -4866,13 +4866,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.27001006E8</v>
+        <v>1.17001017E8</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D65" t="n">
         <v>1.0</v>
@@ -4886,13 +4886,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.27001009E8</v>
+        <v>1.17001021E8</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D66" t="n">
         <v>1.0</v>
@@ -4906,13 +4906,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.2700101E8</v>
+        <v>1.17001026E8</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="D67" t="n">
         <v>1.0</v>
@@ -4926,19 +4926,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.27001015E8</v>
+        <v>1.17001028E8</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.30001003E8</v>
+        <v>1.20001003E8</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -4966,16 +4966,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.30001004E8</v>
+        <v>1.20001008E8</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E70" t="n">
         <v>0.0</v>
@@ -4986,13 +4986,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.30001012E8</v>
+        <v>1.20001011E8</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="D71" t="n">
         <v>1.0</v>
@@ -5006,13 +5006,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.30001015E8</v>
+        <v>1.27001007E8</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D72" t="n">
         <v>1.0</v>
@@ -5026,13 +5026,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.30001016E8</v>
+        <v>1.27001009E8</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D73" t="n">
         <v>1.0</v>
@@ -5046,19 +5046,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.31001001E8</v>
+        <v>1.27001011E8</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="D74" t="n">
         <v>1.0</v>
       </c>
       <c r="E74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -5066,19 +5066,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.31001002E8</v>
+        <v>1.27001014E8</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D75" t="n">
         <v>1.0</v>
       </c>
       <c r="E75" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -5086,19 +5086,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.31001015E8</v>
+        <v>1.30001002E8</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="D76" t="n">
         <v>1.0</v>
       </c>
       <c r="E76" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -5106,19 +5106,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.31001025E8</v>
+        <v>1.30001006E8</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="D77" t="n">
         <v>1.0</v>
       </c>
       <c r="E77" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -5126,56 +5126,56 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.31001027E8</v>
+        <v>1.30001012E8</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="D78" t="n">
         <v>1.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.31001028E8</v>
+        <v>1.30001013E8</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D79" t="n">
         <v>1.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.3100103E8</v>
+        <v>1.30001014E8</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D80" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E80" t="n">
         <v>0.0</v>
@@ -5186,13 +5186,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.31001034E8</v>
+        <v>1.30001015E8</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D81" t="n">
         <v>1.0</v>
@@ -5206,13 +5206,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.31001038E8</v>
+        <v>1.31001003E8</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D82" t="n">
         <v>1.0</v>
@@ -5226,13 +5226,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.31001039E8</v>
+        <v>1.31001005E8</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D83" t="n">
         <v>1.0</v>
@@ -5241,24 +5241,24 @@
         <v>1.0</v>
       </c>
       <c r="F83" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.31001042E8</v>
+        <v>1.31001011E8</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D84" t="n">
         <v>1.0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -5266,13 +5266,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.31001045E8</v>
+        <v>1.31001022E8</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D85" t="n">
         <v>1.0</v>
@@ -5286,19 +5286,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.33001005E8</v>
+        <v>1.31001023E8</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D86" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -5306,19 +5306,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.3300101E8</v>
+        <v>1.31001025E8</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D87" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -5326,19 +5326,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.35001004E8</v>
+        <v>1.31001027E8</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D88" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -5346,19 +5346,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.35001007E8</v>
+        <v>1.31001028E8</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="D89" t="n">
         <v>1.0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -5366,13 +5366,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.35001009E8</v>
+        <v>1.31001034E8</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D90" t="n">
         <v>1.0</v>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.36001001E8</v>
+        <v>1.3100104E8</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D91" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E91" t="n">
         <v>0.0</v>
@@ -5406,33 +5406,33 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.36001003E8</v>
+        <v>1.31001042E8</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D92" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E92" t="n">
         <v>0.0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.36001004E8</v>
+        <v>1.33001011E8</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D93" t="n">
         <v>2.0</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.36001005E8</v>
+        <v>1.35001004E8</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -5466,16 +5466,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.36001008E8</v>
+        <v>1.35001011E8</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D95" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E95" t="n">
         <v>0.0</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.36001011E8</v>
+        <v>1.35001012E8</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -5495,7 +5495,7 @@
         <v>10.0</v>
       </c>
       <c r="D96" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E96" t="n">
         <v>0.0</v>
@@ -5506,16 +5506,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.38001004E8</v>
+        <v>1.36001008E8</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E97" t="n">
         <v>0.0</v>
@@ -5526,33 +5526,33 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.38001007E8</v>
+        <v>1.36001011E8</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E98" t="n">
         <v>0.0</v>
       </c>
       <c r="F98" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.3800101E8</v>
+        <v>1.38001001E8</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D99" t="n">
         <v>2.0</v>
@@ -5566,13 +5566,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.38001011E8</v>
+        <v>1.38001002E8</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D100" t="n">
         <v>2.0</v>
@@ -5586,16 +5586,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.38001014E8</v>
+        <v>1.38001004E8</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="D101" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E101" t="n">
         <v>0.0</v>
@@ -5626,16 +5626,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.38001018E8</v>
+        <v>1.38001016E8</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D103" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E103" t="n">
         <v>0.0</v>
@@ -5646,13 +5646,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.40001001E8</v>
+        <v>1.38001017E8</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D104" t="n">
         <v>1.0</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.40001012E8</v>
+        <v>1.38001018E8</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -5675,18 +5675,18 @@
         <v>4.0</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E105" t="n">
         <v>0.0</v>
       </c>
       <c r="F105" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.40001014E8</v>
+        <v>1.40001011E8</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -5706,13 +5706,13 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.40001015E8</v>
+        <v>1.40001012E8</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D107" t="n">
         <v>1.0</v>
@@ -5726,13 +5726,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.40001016E8</v>
+        <v>1.40001021E8</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D108" t="n">
         <v>1.0</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.40001021E8</v>
+        <v>1.40001022E8</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -5755,7 +5755,7 @@
         <v>3.0</v>
       </c>
       <c r="D109" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E109" t="n">
         <v>0.0</v>
@@ -5766,16 +5766,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.40001022E8</v>
+        <v>1.40001023E8</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D110" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E110" t="n">
         <v>0.0</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.41001007E8</v>
+        <v>1.41001005E8</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.41001012E8</v>
+        <v>1.41001009E8</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -5861,18 +5861,18 @@
         <v>0.0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.41001017E8</v>
+        <v>1.4100101E8</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D115" t="n">
         <v>1.0</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.4100102E8</v>
+        <v>1.41001013E8</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.41001021E8</v>
+        <v>1.41001018E8</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -5915,7 +5915,7 @@
         <v>7.0</v>
       </c>
       <c r="D117" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E117" t="n">
         <v>0.0</v>
@@ -5926,16 +5926,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.41001022E8</v>
+        <v>1.41001021E8</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D118" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E118" t="n">
         <v>0.0</v>
@@ -5946,13 +5946,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.43001004E8</v>
+        <v>1.43001002E8</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D119" t="n">
         <v>1.0</v>
@@ -5961,18 +5961,18 @@
         <v>0.0</v>
       </c>
       <c r="F119" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.43001005E8</v>
+        <v>1.43001004E8</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D120" t="n">
         <v>1.0</v>
@@ -5981,12 +5981,12 @@
         <v>0.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.43001008E8</v>
+        <v>1.43001006E8</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -6021,12 +6021,12 @@
         <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.43001011E8</v>
+        <v>1.43001012E8</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -6035,7 +6035,7 @@
         <v>4.0</v>
       </c>
       <c r="D123" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E123" t="n">
         <v>0.0</v>
@@ -6046,16 +6046,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.43001016E8</v>
+        <v>1.43001013E8</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D124" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E124" t="n">
         <v>0.0</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.43001017E8</v>
+        <v>1.43001016E8</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -6075,7 +6075,7 @@
         <v>5.0</v>
       </c>
       <c r="D125" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E125" t="n">
         <v>0.0</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.43001019E8</v>
+        <v>1.43001018E8</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -6106,13 +6106,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.43001025E8</v>
+        <v>1.43001019E8</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D127" t="n">
         <v>1.0</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.43001026E8</v>
+        <v>1.43001021E8</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.45001003E8</v>
+        <v>1.43001027E8</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D129" t="n">
         <v>1.0</v>
@@ -6166,13 +6166,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.45001004E8</v>
+        <v>1.43001029E8</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D130" t="n">
         <v>1.0</v>
@@ -6186,13 +6186,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.45001009E8</v>
+        <v>1.45001002E8</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
       <c r="C131" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="D131" t="n">
         <v>1.0</v>
@@ -6206,13 +6206,13 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.46001003E8</v>
+        <v>1.4500101E8</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D132" t="n">
         <v>1.0</v>
@@ -6226,13 +6226,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.46001005E8</v>
+        <v>1.45001013E8</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D133" t="n">
         <v>1.0</v>
@@ -6246,13 +6246,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.47001003E8</v>
+        <v>1.46001002E8</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D134" t="n">
         <v>1.0</v>
@@ -6266,13 +6266,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.47001009E8</v>
+        <v>1.46001003E8</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="D135" t="n">
         <v>1.0</v>
@@ -6286,39 +6286,39 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.49001001E8</v>
+        <v>1.47001001E8</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D136" t="n">
         <v>1.0</v>
       </c>
       <c r="E136" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F136" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.49001007E8</v>
+        <v>1.47001002E8</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D137" t="n">
         <v>1.0</v>
       </c>
       <c r="E137" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F137" t="n">
         <v>0.0</v>
@@ -6326,19 +6326,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.49001017E8</v>
+        <v>1.4700101E8</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D138" t="n">
         <v>1.0</v>
       </c>
       <c r="E138" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F138" t="n">
         <v>0.0</v>
@@ -6346,13 +6346,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.49001018E8</v>
+        <v>1.49001005E8</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D139" t="n">
         <v>1.0</v>
@@ -6366,19 +6366,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.49001023E8</v>
+        <v>1.49001018E8</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D140" t="n">
         <v>1.0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F140" t="n">
         <v>0.0</v>
@@ -6386,13 +6386,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.49001024E8</v>
+        <v>1.49001019E8</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D141" t="n">
         <v>1.0</v>
@@ -6406,19 +6406,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.49001026E8</v>
+        <v>1.49001021E8</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D142" t="n">
         <v>1.0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F142" t="n">
         <v>0.0</v>
@@ -6426,13 +6426,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.49001027E8</v>
+        <v>1.49001022E8</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="D143" t="n">
         <v>1.0</v>
@@ -6441,18 +6441,18 @@
         <v>0.0</v>
       </c>
       <c r="F143" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.49001028E8</v>
+        <v>1.49001029E8</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D144" t="n">
         <v>1.0</v>
@@ -6466,13 +6466,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.49001029E8</v>
+        <v>1.49001033E8</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D145" t="n">
         <v>1.0</v>
@@ -6481,24 +6481,24 @@
         <v>0.0</v>
       </c>
       <c r="F145" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.49001033E8</v>
+        <v>1.52001002E8</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D146" t="n">
         <v>1.0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F146" t="n">
         <v>0.0</v>
@@ -6506,13 +6506,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.52001002E8</v>
+        <v>1.52001005E8</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D147" t="n">
         <v>1.0</v>
@@ -6526,13 +6526,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.52001005E8</v>
+        <v>1.52001006E8</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="D148" t="n">
         <v>1.0</v>
@@ -6546,13 +6546,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.52001006E8</v>
+        <v>1.52001009E8</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D149" t="n">
         <v>1.0</v>
@@ -6566,13 +6566,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.52001011E8</v>
+        <v>1.5200101E8</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D150" t="n">
         <v>1.0</v>
@@ -6586,13 +6586,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.52001012E8</v>
+        <v>1.52001014E8</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D151" t="n">
         <v>1.0</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.52001017E8</v>
+        <v>1.5200102E8</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -6626,13 +6626,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.52001019E8</v>
+        <v>1.52001022E8</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
       </c>
       <c r="C153" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="D153" t="n">
         <v>1.0</v>
@@ -6641,18 +6641,18 @@
         <v>1.0</v>
       </c>
       <c r="F153" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.52001025E8</v>
+        <v>1.52001023E8</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
       <c r="C154" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D154" t="n">
         <v>1.0</v>
@@ -6661,7 +6661,7 @@
         <v>1.0</v>
       </c>
       <c r="F154" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
@@ -6706,7 +6706,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.52001031E8</v>
+        <v>1.52001033E8</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
@@ -6718,7 +6718,7 @@
         <v>1.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
@@ -6726,13 +6726,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.54001002E8</v>
+        <v>1.52001036E8</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
       </c>
       <c r="C158" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D158" t="n">
         <v>1.0</v>
@@ -6741,24 +6741,24 @@
         <v>0.0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.54001003E8</v>
+        <v>1.54001006E8</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
       <c r="C159" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="D159" t="n">
         <v>1.0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F159" t="n">
         <v>0.0</v>
@@ -6766,16 +6766,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.54001004E8</v>
+        <v>1.54001009E8</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D160" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E160" t="n">
         <v>0.0</v>
@@ -6806,16 +6806,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.54001012E8</v>
+        <v>1.59001002E8</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D162" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E162" t="n">
         <v>0.0</v>
@@ -6826,13 +6826,13 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.59001005E8</v>
+        <v>1.59001007E8</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
       </c>
       <c r="C163" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D163" t="n">
         <v>2.0</v>
@@ -6846,13 +6846,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.59001008E8</v>
+        <v>1.60001004E8</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
       <c r="C164" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D164" t="n">
         <v>2.0</v>
@@ -6866,16 +6866,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.60001007E8</v>
+        <v>1.60001006E8</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="D165" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E165" t="n">
         <v>0.0</v>
@@ -6886,16 +6886,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.6000101E8</v>
+        <v>1.60001007E8</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
       <c r="C166" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D166" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E166" t="n">
         <v>0.0</v>
@@ -6906,16 +6906,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.60001012E8</v>
+        <v>1.60001009E8</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
       <c r="C167" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="D167" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E167" t="n">
         <v>0.0</v>
@@ -6926,13 +6926,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.63001002E8</v>
+        <v>1.60001012E8</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="D168" t="n">
         <v>1.0</v>
@@ -6946,13 +6946,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.63001007E8</v>
+        <v>1.60001014E8</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D169" t="n">
         <v>1.0</v>
@@ -6966,13 +6966,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.63001008E8</v>
+        <v>1.63001002E8</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D170" t="n">
         <v>1.0</v>
@@ -6986,13 +6986,13 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.64001014E8</v>
+        <v>1.63001009E8</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
       <c r="C171" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D171" t="n">
         <v>1.0</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.64001016E8</v>
+        <v>1.64001012E8</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.03001005E8</v>
+        <v>1.64001016E8</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -7046,13 +7046,13 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.03001007E8</v>
+        <v>2.03001008E8</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D174" t="n">
         <v>1.0</v>
@@ -7061,18 +7061,18 @@
         <v>0.0</v>
       </c>
       <c r="F174" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.03001011E8</v>
+        <v>2.03001009E8</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
       </c>
       <c r="C175" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D175" t="n">
         <v>1.0</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.02001001E8</v>
+        <v>1.02001004E8</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.02001007E8</v>
+        <v>1.02001006E8</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -7159,13 +7159,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.02001009E8</v>
+        <v>1.02001013E8</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
         <v>1.0</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.02001015E8</v>
+        <v>1.02001014E8</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -7199,16 +7199,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.02001017E8</v>
+        <v>1.02001016E8</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -7219,13 +7219,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.07001001E8</v>
+        <v>1.07001002E8</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" t="n">
         <v>1.0</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.07001006E8</v>
+        <v>1.07001008E8</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -7259,13 +7259,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0700101E8</v>
+        <v>1.07001018E8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n">
         <v>1.0</v>
@@ -7274,18 +7274,18 @@
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.07001011E8</v>
+        <v>1.0700102E8</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n">
         <v>1.0</v>
@@ -7294,24 +7294,24 @@
         <v>1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.07001015E8</v>
+        <v>1.07001023E8</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D11" t="n">
         <v>1.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.07001017E8</v>
+        <v>1.07001026E8</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -7331,7 +7331,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -7339,19 +7339,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.07001021E8</v>
+        <v>1.07001102E8</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -7359,33 +7359,33 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.07001024E8</v>
+        <v>1.07001103E8</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.07001101E8</v>
+        <v>1.07001112E8</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D15" t="n">
         <v>2.0</v>
@@ -7394,18 +7394,18 @@
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.07001102E8</v>
+        <v>1.07001113E8</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D16" t="n">
         <v>2.0</v>
@@ -7414,18 +7414,18 @@
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.07001104E8</v>
+        <v>1.07001116E8</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" t="n">
         <v>2.0</v>
@@ -7439,19 +7439,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.07001115E8</v>
+        <v>1.08001002E8</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -7459,19 +7459,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.08001002E8</v>
+        <v>1.08001003E8</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -7479,13 +7479,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.0800101E8</v>
+        <v>1.08001005E8</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D20" t="n">
         <v>1.0</v>
@@ -7499,39 +7499,39 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.08001011E8</v>
+        <v>1.08001006E8</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.12001002E8</v>
+        <v>1.08001008E8</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -7539,19 +7539,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.12001006E8</v>
+        <v>1.08001011E8</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="D23" t="n">
         <v>1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -7559,36 +7559,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.12001008E8</v>
+        <v>1.1000101E8</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24" t="n">
         <v>1.0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.13001001E8</v>
+        <v>1.12001002E8</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
@@ -7599,19 +7599,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.13001002E8</v>
+        <v>1.12001004E8</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="D26" t="n">
         <v>1.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -7619,19 +7619,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.13001003E8</v>
+        <v>1.12001006E8</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D27" t="n">
         <v>1.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -7639,13 +7639,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.13001006E8</v>
+        <v>1.1200101E8</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="D28" t="n">
         <v>1.0</v>
@@ -7654,18 +7654,18 @@
         <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.13001007E8</v>
+        <v>1.1300101E8</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.13001008E8</v>
+        <v>1.13001011E8</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -7694,12 +7694,12 @@
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.13001009E8</v>
+        <v>1.13001012E8</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -7719,13 +7719,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.1300101E8</v>
+        <v>1.13001013E8</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
@@ -7739,13 +7739,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.13001013E8</v>
+        <v>1.13001014E8</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
@@ -7759,13 +7759,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.13001014E8</v>
+        <v>1.13001015E8</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D34" t="n">
         <v>1.0</v>
@@ -7779,13 +7779,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.13001017E8</v>
+        <v>1.13001016E8</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
@@ -7799,19 +7799,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.13001022E8</v>
+        <v>1.13001017E8</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D36" t="n">
         <v>1.0</v>
       </c>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -7819,19 +7819,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.13001024E8</v>
+        <v>1.13001019E8</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D37" t="n">
         <v>1.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -7839,27 +7839,27 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.14001002E8</v>
+        <v>1.13001021E8</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14001005E8</v>
+        <v>1.14001003E8</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -7879,13 +7879,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14001006E8</v>
+        <v>1.14001011E8</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D40" t="n">
         <v>1.0</v>
@@ -7899,13 +7899,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.14001008E8</v>
+        <v>1.14001012E8</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D41" t="n">
         <v>1.0</v>
@@ -7919,13 +7919,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.14001012E8</v>
+        <v>1.14001013E8</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D42" t="n">
         <v>1.0</v>
@@ -7939,13 +7939,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.14001023E8</v>
+        <v>1.14001014E8</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="D43" t="n">
         <v>1.0</v>
@@ -7959,13 +7959,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.15001007E8</v>
+        <v>1.14001017E8</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
@@ -7979,13 +7979,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.15001009E8</v>
+        <v>1.14001019E8</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="D45" t="n">
         <v>1.0</v>
@@ -7999,13 +7999,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.15001013E8</v>
+        <v>1.15001008E8</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
@@ -8014,18 +8014,18 @@
         <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.16001001E8</v>
+        <v>1.15001009E8</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.16001004E8</v>
+        <v>1.1500101E8</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -8048,7 +8048,7 @@
         <v>3.0</v>
       </c>
       <c r="D48" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E48" t="n">
         <v>0.0</v>
@@ -8059,16 +8059,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.16001006E8</v>
+        <v>1.15001011E8</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="D49" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E49" t="n">
         <v>0.0</v>
@@ -8079,16 +8079,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.16001008E8</v>
+        <v>1.16001002E8</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D50" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E50" t="n">
         <v>0.0</v>
@@ -8099,13 +8099,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.1600101E8</v>
+        <v>1.16001009E8</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D51" t="n">
         <v>2.0</v>
@@ -8114,24 +8114,24 @@
         <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.16001012E8</v>
+        <v>1.17001001E8</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D52" t="n">
         <v>1.0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -8139,19 +8139,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.17001007E8</v>
+        <v>1.17001009E8</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D53" t="n">
         <v>1.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -8159,13 +8159,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.1700101E8</v>
+        <v>1.17001011E8</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D54" t="n">
         <v>1.0</v>
@@ -8179,19 +8179,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.17001016E8</v>
+        <v>1.17001012E8</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D55" t="n">
         <v>1.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -8199,13 +8199,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.17001019E8</v>
+        <v>1.17001013E8</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D56" t="n">
         <v>1.0</v>
@@ -8219,33 +8219,33 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.1700102E8</v>
+        <v>1.17001014E8</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D57" t="n">
         <v>1.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.17001022E8</v>
+        <v>1.17001015E8</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D58" t="n">
         <v>1.0</v>
@@ -8259,13 +8259,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.17001026E8</v>
+        <v>1.17001022E8</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
@@ -8274,12 +8274,12 @@
         <v>0.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.17001028E8</v>
+        <v>1.17001029E8</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -8291,21 +8291,21 @@
         <v>1.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.17001029E8</v>
+        <v>1.20001001E8</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="D61" t="n">
         <v>1.0</v>
@@ -8319,13 +8319,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.20001003E8</v>
+        <v>1.20001002E8</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
@@ -8339,16 +8339,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.20001007E8</v>
+        <v>1.20001005E8</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="D63" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E63" t="n">
         <v>0.0</v>
@@ -8359,13 +8359,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.20001008E8</v>
+        <v>1.20001007E8</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D64" t="n">
         <v>2.0</v>
@@ -8379,13 +8379,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.20001009E8</v>
+        <v>1.2000101E8</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D65" t="n">
         <v>1.0</v>
@@ -8399,13 +8399,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.20001011E8</v>
+        <v>1.27001003E8</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="D66" t="n">
         <v>1.0</v>
@@ -8414,18 +8414,18 @@
         <v>0.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.27001003E8</v>
+        <v>1.27001006E8</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D67" t="n">
         <v>1.0</v>
@@ -8439,13 +8439,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.27001007E8</v>
+        <v>1.2700101E8</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
@@ -8474,18 +8474,18 @@
         <v>0.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.27001013E8</v>
+        <v>1.27001015E8</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D70" t="n">
         <v>1.0</v>
@@ -8499,13 +8499,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.30001005E8</v>
+        <v>1.30001001E8</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D71" t="n">
         <v>1.0</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.30001006E8</v>
+        <v>1.30001003E8</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -8539,13 +8539,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.30001008E8</v>
+        <v>1.30001004E8</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D73" t="n">
         <v>1.0</v>
@@ -8559,13 +8559,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.30001009E8</v>
+        <v>1.30001005E8</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D74" t="n">
         <v>1.0</v>
@@ -8574,18 +8574,18 @@
         <v>0.0</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.3000101E8</v>
+        <v>1.30001007E8</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="D75" t="n">
         <v>1.0</v>
@@ -8599,13 +8599,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.30001013E8</v>
+        <v>1.30001008E8</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D76" t="n">
         <v>1.0</v>
@@ -8614,18 +8614,18 @@
         <v>0.0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.30001014E8</v>
+        <v>1.30001009E8</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D77" t="n">
         <v>1.0</v>
@@ -8639,53 +8639,53 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.31001003E8</v>
+        <v>1.3000101E8</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D78" t="n">
         <v>1.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.31001009E8</v>
+        <v>1.30001016E8</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="D79" t="n">
         <v>1.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.31001011E8</v>
+        <v>1.31001004E8</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D80" t="n">
         <v>1.0</v>
@@ -8699,13 +8699,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.31001013E8</v>
+        <v>1.3100101E8</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D81" t="n">
         <v>1.0</v>
@@ -8719,19 +8719,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.31001014E8</v>
+        <v>1.31001012E8</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D82" t="n">
         <v>1.0</v>
       </c>
       <c r="E82" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -8739,19 +8739,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.31001016E8</v>
+        <v>1.31001014E8</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D83" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -8759,13 +8759,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.31001018E8</v>
+        <v>1.31001019E8</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D84" t="n">
         <v>1.0</v>
@@ -8799,13 +8799,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.31001023E8</v>
+        <v>1.31001024E8</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="D86" t="n">
         <v>1.0</v>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.31001024E8</v>
+        <v>1.31001032E8</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -8828,27 +8828,27 @@
         <v>4.0</v>
       </c>
       <c r="D87" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E87" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F87" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.31001032E8</v>
+        <v>1.31001035E8</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D88" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E88" t="n">
         <v>0.0</v>
@@ -8859,19 +8859,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.31001033E8</v>
+        <v>1.31001038E8</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D89" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -8879,19 +8879,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.31001035E8</v>
+        <v>1.31001039E8</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D90" t="n">
         <v>1.0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -8899,19 +8899,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.31001037E8</v>
+        <v>1.31001041E8</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="D91" t="n">
         <v>1.0</v>
       </c>
       <c r="E91" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -8939,16 +8939,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.33001001E8</v>
+        <v>1.31001045E8</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D93" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E93" t="n">
         <v>0.0</v>
@@ -8959,13 +8959,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.33001003E8</v>
+        <v>1.33001001E8</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D94" t="n">
         <v>2.0</v>
@@ -8974,21 +8974,21 @@
         <v>0.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.33001013E8</v>
+        <v>1.33001005E8</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E95" t="n">
         <v>0.0</v>
@@ -8999,16 +8999,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.3500101E8</v>
+        <v>1.33001006E8</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E96" t="n">
         <v>0.0</v>
@@ -9019,13 +9019,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.35001012E8</v>
+        <v>1.33001007E8</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D97" t="n">
         <v>1.0</v>
@@ -9034,21 +9034,21 @@
         <v>0.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.35001019E8</v>
+        <v>1.3300101E8</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E98" t="n">
         <v>0.0</v>
@@ -9059,16 +9059,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.35001021E8</v>
+        <v>1.33001013E8</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D99" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E99" t="n">
         <v>0.0</v>
@@ -9079,16 +9079,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.36001006E8</v>
+        <v>1.33001014E8</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="D100" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E100" t="n">
         <v>0.0</v>
@@ -9099,16 +9099,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.3600101E8</v>
+        <v>1.35001007E8</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="D101" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E101" t="n">
         <v>0.0</v>
@@ -9119,16 +9119,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.38001001E8</v>
+        <v>1.35001009E8</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D102" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E102" t="n">
         <v>0.0</v>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.38001002E8</v>
+        <v>1.36001001E8</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -9154,18 +9154,18 @@
         <v>0.0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.38001003E8</v>
+        <v>1.36001002E8</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D104" t="n">
         <v>2.0</v>
@@ -9179,16 +9179,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.38001005E8</v>
+        <v>1.36001003E8</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E105" t="n">
         <v>0.0</v>
@@ -9199,16 +9199,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.38001012E8</v>
+        <v>1.36001005E8</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="D106" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E106" t="n">
         <v>0.0</v>
@@ -9219,16 +9219,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.38001016E8</v>
+        <v>1.38001003E8</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E107" t="n">
         <v>0.0</v>
@@ -9239,13 +9239,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.38001017E8</v>
+        <v>1.38001005E8</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="D108" t="n">
         <v>1.0</v>
@@ -9259,13 +9259,13 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.40001011E8</v>
+        <v>1.38001006E8</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D109" t="n">
         <v>1.0</v>
@@ -9279,16 +9279,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.40001013E8</v>
+        <v>1.3800101E8</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D110" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E110" t="n">
         <v>0.0</v>
@@ -9299,16 +9299,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.40001017E8</v>
+        <v>1.38001013E8</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E111" t="n">
         <v>0.0</v>
@@ -9319,16 +9319,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.40001019E8</v>
+        <v>1.38001014E8</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E112" t="n">
         <v>0.0</v>
@@ -9339,16 +9339,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.4000102E8</v>
+        <v>1.38001019E8</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D113" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E113" t="n">
         <v>0.0</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.41001004E8</v>
+        <v>1.40001001E8</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -9379,13 +9379,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.41001005E8</v>
+        <v>1.40001014E8</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D115" t="n">
         <v>1.0</v>
@@ -9394,18 +9394,18 @@
         <v>0.0</v>
       </c>
       <c r="F115" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.41001008E8</v>
+        <v>1.40001016E8</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
       <c r="C116" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D116" t="n">
         <v>1.0</v>
@@ -9419,13 +9419,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.41001009E8</v>
+        <v>1.40001017E8</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D117" t="n">
         <v>1.0</v>
@@ -9434,18 +9434,18 @@
         <v>0.0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.41001011E8</v>
+        <v>1.4000102E8</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D118" t="n">
         <v>1.0</v>
@@ -9454,18 +9454,18 @@
         <v>0.0</v>
       </c>
       <c r="F118" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.41001016E8</v>
+        <v>1.41001007E8</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D119" t="n">
         <v>1.0</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.41001023E8</v>
+        <v>1.41001011E8</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -9499,13 +9499,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.43001001E8</v>
+        <v>1.41001012E8</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
       <c r="C121" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D121" t="n">
         <v>1.0</v>
@@ -9519,16 +9519,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.43001003E8</v>
+        <v>1.41001014E8</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
       <c r="C122" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D122" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E122" t="n">
         <v>0.0</v>
@@ -9539,16 +9539,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.43001012E8</v>
+        <v>1.41001017E8</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="C123" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D123" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E123" t="n">
         <v>0.0</v>
@@ -9559,16 +9559,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.43001018E8</v>
+        <v>1.43001003E8</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="D124" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E124" t="n">
         <v>0.0</v>
@@ -9579,16 +9579,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.43001021E8</v>
+        <v>1.43001008E8</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
       <c r="C125" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D125" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E125" t="n">
         <v>0.0</v>
@@ -9599,16 +9599,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.43001023E8</v>
+        <v>1.43001009E8</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
       <c r="C126" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D126" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E126" t="n">
         <v>0.0</v>
@@ -9619,13 +9619,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.43001027E8</v>
+        <v>1.43001011E8</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D127" t="n">
         <v>1.0</v>
@@ -9639,13 +9639,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.43001028E8</v>
+        <v>1.43001014E8</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
       <c r="C128" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D128" t="n">
         <v>1.0</v>
@@ -9659,16 +9659,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.43001029E8</v>
+        <v>1.43001017E8</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
       </c>
       <c r="C129" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D129" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E129" t="n">
         <v>0.0</v>
@@ -9679,13 +9679,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.4500101E8</v>
+        <v>1.43001025E8</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
       <c r="C130" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D130" t="n">
         <v>1.0</v>
@@ -9699,13 +9699,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.45001012E8</v>
+        <v>1.43001026E8</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
       </c>
       <c r="C131" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D131" t="n">
         <v>1.0</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.45001013E8</v>
+        <v>1.43001028E8</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -9739,13 +9739,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.45001014E8</v>
+        <v>1.45001001E8</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D133" t="n">
         <v>1.0</v>
@@ -9759,13 +9759,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.46001001E8</v>
+        <v>1.45001009E8</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
       </c>
       <c r="C134" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="D134" t="n">
         <v>1.0</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.46001002E8</v>
+        <v>1.45001012E8</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -9794,18 +9794,18 @@
         <v>0.0</v>
       </c>
       <c r="F135" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.47001004E8</v>
+        <v>1.45001014E8</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
       </c>
       <c r="C136" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D136" t="n">
         <v>1.0</v>
@@ -9819,13 +9819,13 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.47001007E8</v>
+        <v>1.47001003E8</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
       <c r="C137" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D137" t="n">
         <v>1.0</v>
@@ -9839,13 +9839,13 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.47001008E8</v>
+        <v>1.47001004E8</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
       </c>
       <c r="C138" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D138" t="n">
         <v>1.0</v>
@@ -9859,19 +9859,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.49001008E8</v>
+        <v>1.47001009E8</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
       </c>
       <c r="C139" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D139" t="n">
         <v>1.0</v>
       </c>
       <c r="E139" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -9879,13 +9879,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.4900101E8</v>
+        <v>1.49001008E8</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="C140" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D140" t="n">
         <v>1.0</v>
@@ -9899,13 +9899,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.49001016E8</v>
+        <v>1.49001011E8</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
       </c>
       <c r="C141" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D141" t="n">
         <v>1.0</v>
@@ -9919,13 +9919,13 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.4900102E8</v>
+        <v>1.49001016E8</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="C142" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D142" t="n">
         <v>1.0</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.49001021E8</v>
+        <v>1.49001017E8</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -9959,13 +9959,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.49001022E8</v>
+        <v>1.49001025E8</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D144" t="n">
         <v>1.0</v>
@@ -9974,18 +9974,18 @@
         <v>0.0</v>
       </c>
       <c r="F144" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.49001025E8</v>
+        <v>1.49001026E8</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D145" t="n">
         <v>1.0</v>
@@ -9999,13 +9999,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.49001032E8</v>
+        <v>1.49001028E8</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D146" t="n">
         <v>1.0</v>
@@ -10019,19 +10019,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.52001003E8</v>
+        <v>1.49001031E8</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
       <c r="C147" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D147" t="n">
         <v>1.0</v>
       </c>
       <c r="E147" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F147" t="n">
         <v>0.0</v>
@@ -10039,19 +10039,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.52001009E8</v>
+        <v>1.49001032E8</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
       <c r="C148" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D148" t="n">
         <v>1.0</v>
       </c>
       <c r="E148" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F148" t="n">
         <v>0.0</v>
@@ -10059,19 +10059,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.52001013E8</v>
+        <v>1.52001001E8</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="D149" t="n">
         <v>1.0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F149" t="n">
         <v>0.0</v>
@@ -10079,13 +10079,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.52001014E8</v>
+        <v>1.52001004E8</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
       <c r="C150" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D150" t="n">
         <v>1.0</v>
@@ -10099,19 +10099,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.52001016E8</v>
+        <v>1.52001011E8</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
       </c>
       <c r="C151" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D151" t="n">
         <v>1.0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F151" t="n">
         <v>0.0</v>
@@ -10119,39 +10119,39 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.52001023E8</v>
+        <v>1.52001013E8</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
       <c r="C152" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D152" t="n">
         <v>1.0</v>
       </c>
       <c r="E152" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.52001024E8</v>
+        <v>1.52001015E8</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
       </c>
       <c r="C153" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D153" t="n">
         <v>1.0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F153" t="n">
         <v>0.0</v>
@@ -10159,13 +10159,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.52001026E8</v>
+        <v>1.52001021E8</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
       <c r="C154" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D154" t="n">
         <v>1.0</v>
@@ -10179,39 +10179,39 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.52001027E8</v>
+        <v>1.52001024E8</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
       </c>
       <c r="C155" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D155" t="n">
         <v>1.0</v>
       </c>
       <c r="E155" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.52001035E8</v>
+        <v>1.52001025E8</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
       </c>
       <c r="C156" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D156" t="n">
         <v>1.0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F156" t="n">
         <v>0.0</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.52001036E8</v>
+        <v>1.52001028E8</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
@@ -10231,7 +10231,7 @@
         <v>1.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
@@ -10239,19 +10239,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.54001006E8</v>
+        <v>1.52001031E8</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
       <c r="C158" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="D158" t="n">
         <v>1.0</v>
       </c>
       <c r="E158" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F158" t="n">
         <v>0.0</v>
@@ -10259,19 +10259,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.54001007E8</v>
+        <v>1.52001032E8</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="C159" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D159" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F159" t="n">
         <v>0.0</v>
@@ -10279,36 +10279,36 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.5400101E8</v>
+        <v>1.52001034E8</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
       </c>
       <c r="C160" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D160" t="n">
         <v>1.0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F160" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.59001001E8</v>
+        <v>1.54001001E8</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
       <c r="C161" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D161" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E161" t="n">
         <v>0.0</v>
@@ -10319,19 +10319,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.59001002E8</v>
+        <v>1.54001008E8</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
       <c r="C162" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D162" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F162" t="n">
         <v>0.0</v>
@@ -10339,16 +10339,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.59001007E8</v>
+        <v>1.54001012E8</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
       </c>
       <c r="C163" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D163" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E163" t="n">
         <v>0.0</v>
@@ -10359,16 +10359,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.60001004E8</v>
+        <v>1.54001013E8</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D164" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E164" t="n">
         <v>0.0</v>
@@ -10379,13 +10379,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.63001001E8</v>
+        <v>1.6000101E8</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D165" t="n">
         <v>1.0</v>
@@ -10399,13 +10399,13 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.63001003E8</v>
+        <v>1.60001013E8</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D166" t="n">
         <v>1.0</v>
@@ -10419,7 +10419,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.64001005E8</v>
+        <v>1.63001006E8</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
@@ -10439,13 +10439,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.64001009E8</v>
+        <v>1.63001007E8</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
       <c r="C168" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D168" t="n">
         <v>1.0</v>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.64001017E8</v>
+        <v>1.64001011E8</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.03001002E8</v>
+        <v>1.64001014E8</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -10494,18 +10494,18 @@
         <v>0.0</v>
       </c>
       <c r="F170" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.03001004E8</v>
+        <v>2.03001002E8</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
       </c>
       <c r="C171" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D171" t="n">
         <v>1.0</v>
@@ -10519,13 +10519,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.03001006E8</v>
+        <v>2.03001003E8</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
       </c>
       <c r="C172" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D172" t="n">
         <v>1.0</v>
@@ -10534,18 +10534,18 @@
         <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.03001009E8</v>
+        <v>2.03001007E8</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
       </c>
       <c r="C173" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D173" t="n">
         <v>1.0</v>
@@ -10559,13 +10559,13 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.0300101E8</v>
+        <v>2.03001011E8</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D174" t="n">
         <v>1.0</v>
